--- a/CodeSystem-medication-exposuretype.xlsx
+++ b/CodeSystem-medication-exposuretype.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-07T20:10:57+00:00</t>
+    <t>2023-10-29T13:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-exposuretype.xlsx
+++ b/CodeSystem-medication-exposuretype.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T17:28:29+00:00</t>
+    <t>2023-10-29T18:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-exposuretype.xlsx
+++ b/CodeSystem-medication-exposuretype.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T18:04:13+00:00</t>
+    <t>2023-10-29T19:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-exposuretype.xlsx
+++ b/CodeSystem-medication-exposuretype.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T19:43:50+00:00</t>
+    <t>2023-11-02T09:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-exposuretype.xlsx
+++ b/CodeSystem-medication-exposuretype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-02T17:12:06+00:00</t>
+    <t>2024-01-09T10:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-exposuretype.xlsx
+++ b/CodeSystem-medication-exposuretype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T10:02:55+00:00</t>
+    <t>2024-01-09T13:30:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-exposuretype.xlsx
+++ b/CodeSystem-medication-exposuretype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T13:30:16+00:00</t>
+    <t>2024-03-21T20:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-exposuretype.xlsx
+++ b/CodeSystem-medication-exposuretype.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T20:28:49+00:00</t>
+    <t>2024-03-24T09:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
